--- a/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
+++ b/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/FORMATOS DE RESIDENCIA/PARA NO DE CONTROL 1516XXXX EN ADELANTE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\FarmaciasGI\FarmaciaGiDocumentos\FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS\ENVIAR ASESOR UNO FORMATOS REVISION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_222B26C94797D140428AF2EFE85B911B7D9959ED" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2F3DACAD-A368-47EB-9F72-6D732EECE4EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARCIAL 2" sheetId="3" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>SISTEMA DE PUNTO DE VENTA Y E-COMMERCE PARA LAS SUCURSALES DE FARMACIAS GI S.A. DE C.V, EN ZIMATLAN DE ALVAREZ, OAXACA.</t>
   </si>
   <si>
-    <t>FARMACIAS GI S.A. de C.V.</t>
-  </si>
-  <si>
     <t>LEICY CORDOVA HERRERA</t>
   </si>
   <si>
@@ -134,21 +131,12 @@
     <t>HACER BACKLOG DEL PRODUCTO</t>
   </si>
   <si>
-    <t>HACER MODELO E-R</t>
-  </si>
-  <si>
-    <t>MODULO DE USUARIOS</t>
-  </si>
-  <si>
     <t>REALIZAR CRUD DE LOS EMPLEADOS</t>
   </si>
   <si>
     <t>REALIZAR CRUD DE LOS CLIENTES</t>
   </si>
   <si>
-    <t>LOGUEAR USUARIOS AL SISTEMA</t>
-  </si>
-  <si>
     <t>REALIZAR CRUD DE LOS PRODUCTOS</t>
   </si>
   <si>
@@ -173,22 +161,34 @@
     <t>GENERAR REPORTES</t>
   </si>
   <si>
-    <t>CREAR EL CATALOGO DE PRODUCTOS</t>
-  </si>
-  <si>
-    <t>CREAR LA SECCION DE CONTENIDO</t>
-  </si>
-  <si>
     <t>AGREGAR CARRITO DE COMPRAS</t>
   </si>
   <si>
-    <t>HACER MODULO DE PAGOS</t>
-  </si>
-  <si>
     <t>GENERAR HISTORIAL DE PEDIDOS</t>
   </si>
   <si>
     <t>HACER SEGUIMIENTO DE PEDIDOS</t>
+  </si>
+  <si>
+    <t>FARMACIAS GI S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>LOGIN DE USUARIOS AL SISTEMA</t>
+  </si>
+  <si>
+    <t>HACER MÓDULO DE PAGOS</t>
+  </si>
+  <si>
+    <t>CREAR EL CATÁLOGO DE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>CREAR LA SECCIÓN DE CONTENIDO</t>
+  </si>
+  <si>
+    <t>HACER MÓDELO E-R</t>
+  </si>
+  <si>
+    <t>MÓDULO DE USUARIOS</t>
   </si>
 </sst>
 </file>
@@ -406,56 +406,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -483,9 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C362D9-CDB1-462E-AA31-B84255672C85}">
   <dimension ref="A5:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,102 +984,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1099,18 +1099,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="19">
         <v>44181</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1122,18 +1122,18 @@
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="D16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1150,285 +1150,285 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="17">
+      <c r="D20" s="21">
         <v>15161317</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="17">
+      <c r="D21" s="21">
         <v>15161377</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="D30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="D33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="D35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
@@ -1464,43 +1464,43 @@
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -1508,28 +1508,37 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="J56" s="18" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="J56" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="C47:M49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="D15:E15"/>
@@ -1543,21 +1552,12 @@
     <mergeCell ref="D24:M28"/>
     <mergeCell ref="D30:M31"/>
     <mergeCell ref="D33:M33"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:K43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1586,102 +1586,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1701,18 +1701,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="19">
         <v>44145</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1724,18 +1724,18 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="D16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1752,321 +1752,321 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="17">
+      <c r="D20" s="21">
         <v>15161317</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="17">
+      <c r="D21" s="21">
         <v>15161377</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="D30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
+      <c r="D33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
+      <c r="D35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
@@ -2102,43 +2102,43 @@
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2146,44 +2146,22 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="J58" s="18" t="s">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="J58" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A43:K43"/>
@@ -2200,6 +2178,28 @@
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A7:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2227,102 +2227,102 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -2336,28 +2336,28 @@
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="19">
         <v>44221</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="D16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -2367,11 +2367,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -2391,344 +2391,344 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="17">
+      <c r="D21" s="21">
         <v>15161317</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="17">
+      <c r="D22" s="21">
         <v>15161377</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="D31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
+      <c r="D34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
+      <c r="D36" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="20"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="A40" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="A44" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="A45" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -2736,42 +2736,22 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="J56" s="18" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="J56" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="A44:K44"/>
@@ -2788,6 +2768,26 @@
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="C47:M49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
+++ b/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\FarmaciasGI\FarmaciaGiDocumentos\FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS\ENVIAR ASESOR UNO FORMATOS REVISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDEEB3D4-A04E-44EE-A87B-CFE7E0250DEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PARCIAL 2" sheetId="3" r:id="rId1"/>
-    <sheet name="PARCIAL" sheetId="1" r:id="rId2"/>
+    <sheet name="PARCIAL 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PARCIAL 2" sheetId="3" r:id="rId2"/>
     <sheet name="FINAL" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -406,20 +406,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -447,15 +456,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA83DD8-93BE-4B0D-A04E-7510B4A935AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +590,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA83DD8-93BE-4B0D-A04E-7510B4A935AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C362D9-CDB1-462E-AA31-B84255672C85}">
-  <dimension ref="A5:M56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,112 +984,112 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="12">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="2"/>
@@ -1100,619 +1100,17 @@
         <v>6</v>
       </c>
       <c r="K14" s="19">
-        <v>44181</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="21">
-        <v>15161317</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="21">
-        <v>15161377</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M38" s="32"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="J56" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:M19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:M20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D24:M28"/>
-    <mergeCell ref="D30:M31"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:M58"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:K41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-    </row>
-    <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="19">
         <v>44145</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1724,18 +1122,18 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1752,321 +1150,321 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>15161317</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>15161377</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="32"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21" t="s">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
@@ -2102,43 +1500,43 @@
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2146,19 +1544,19 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="J58" s="33" t="s">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="J58" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -2207,12 +1605,614 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C362D9-CDB1-462E-AA31-B84255672C85}">
+  <dimension ref="A5:M56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="12">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="19">
+        <v>44181</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="17">
+        <v>15161317</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="17">
+        <v>15161377</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="J56" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C47:M49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D24:M28"/>
+    <mergeCell ref="D30:M31"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A7:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2227,102 +2227,102 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -2339,25 +2339,25 @@
       <c r="K15" s="19">
         <v>44221</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -2391,52 +2391,52 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>15161317</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>15161377</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2507,228 +2507,228 @@
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="32"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -2736,19 +2736,19 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="J56" s="33" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="J56" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="36">

--- a/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
+++ b/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BDEEB3D4-A04E-44EE-A87B-CFE7E0250DEE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEEB3D4-A04E-44EE-A87B-CFE7E0250DEE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,86 +406,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:M16"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,102 +984,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1099,18 +1099,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="33">
         <v>44145</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1122,18 +1122,18 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1150,321 +1150,321 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="17">
+      <c r="D20" s="19">
         <v>15161317</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>15161377</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="23"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
@@ -1500,43 +1500,43 @@
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -1544,22 +1544,44 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="J58" s="21" t="s">
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="J58" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A43:K43"/>
@@ -1576,28 +1598,6 @@
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C362D9-CDB1-462E-AA31-B84255672C85}">
   <dimension ref="A5:M56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:M31"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1626,102 +1626,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1741,18 +1741,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="33">
         <v>44181</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1764,18 +1764,18 @@
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1792,285 +1792,285 @@
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="17">
+      <c r="D20" s="19">
         <v>15161317</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>15161377</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="33"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="23"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
@@ -2106,43 +2106,43 @@
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -2150,37 +2150,28 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="J56" s="21" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="J56" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="D15:E15"/>
@@ -2194,12 +2185,21 @@
     <mergeCell ref="D24:M28"/>
     <mergeCell ref="D30:M31"/>
     <mergeCell ref="D33:M33"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C47:M49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="L43:M43"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2212,7 +2212,7 @@
   <dimension ref="A7:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:M15"/>
+      <selection activeCell="L42" sqref="L42:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2227,102 +2227,102 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -2336,28 +2336,28 @@
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="33">
         <v>44221</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -2367,11 +2367,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -2391,344 +2391,344 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="17">
+      <c r="D21" s="19">
         <v>15161317</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="17">
+      <c r="D22" s="19">
         <v>15161377</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="40"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="43"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="42"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="23" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="23"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
@@ -2736,22 +2736,42 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="J56" s="21" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="J56" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="C47:M49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="A44:K44"/>
@@ -2768,26 +2788,6 @@
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
+++ b/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/HOJA DE REVISORES 2020.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73a9b2cc98479d66/Documentos/RESIDENCIA/FarmaciaGiDocumentos/FORMATOS RELLENADOS ITO RESI 1516 OK ENVIADOS/ENVIAR ASESOR UNO FORMATOS REVISION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEEB3D4-A04E-44EE-A87B-CFE7E0250DEE}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{942AE0CC-CA7D-46EC-B28D-27C951DF8792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E192549-ABA3-4C10-8CE1-0749E5998214}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARCIAL 1" sheetId="1" r:id="rId1"/>
     <sheet name="PARCIAL 2" sheetId="3" r:id="rId2"/>
-    <sheet name="FINAL" sheetId="2" r:id="rId3"/>
+    <sheet name="PARCIAL 3" sheetId="4" r:id="rId3"/>
+    <sheet name="FINAL" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="62">
   <si>
     <t>SUBDIRECCIÓN ACADÉMICA</t>
   </si>
@@ -110,42 +111,15 @@
     <t>SEMESTRE SEPTIEMBRE 2020-ENERO 2021</t>
   </si>
   <si>
-    <t>HEBER ZABDIEL HERNANDEZ MARTINEZ</t>
-  </si>
-  <si>
     <t>ADELAIDA MOLINA REYES</t>
   </si>
   <si>
-    <t>SISTEMA DE PUNTO DE VENTA Y E-COMMERCE PARA LAS SUCURSALES DE FARMACIAS GI S.A. DE C.V, EN ZIMATLAN DE ALVAREZ, OAXACA.</t>
-  </si>
-  <si>
-    <t>LEICY CORDOVA HERRERA</t>
-  </si>
-  <si>
     <t>GABRIELA AGUILAR ORTIZ</t>
   </si>
   <si>
-    <t>28 DE SEPTIEMBRE 2020-30 DE OCTUBRE 2020</t>
-  </si>
-  <si>
-    <t>HACER BACKLOG DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t>REALIZAR CRUD DE LOS EMPLEADOS</t>
-  </si>
-  <si>
     <t>REALIZAR CRUD DE LOS CLIENTES</t>
   </si>
   <si>
-    <t>REALIZAR CRUD DE LOS PRODUCTOS</t>
-  </si>
-  <si>
-    <t>01 DE NOVIEMBRE 2020-11 DE DICIEMBRE 2020</t>
-  </si>
-  <si>
-    <t>14 DE DICIEMBRE 2020-22 DE ENERO 2021</t>
-  </si>
-  <si>
     <t>GENERAR COMPRAS</t>
   </si>
   <si>
@@ -155,12 +129,6 @@
     <t>CREAR CARTERA VENCIDA DE CLIENTES</t>
   </si>
   <si>
-    <t>MONITOREAR PRODUCTOS</t>
-  </si>
-  <si>
-    <t>GENERAR REPORTES</t>
-  </si>
-  <si>
     <t>AGREGAR CARRITO DE COMPRAS</t>
   </si>
   <si>
@@ -185,10 +153,67 @@
     <t>CREAR LA SECCIÓN DE CONTENIDO</t>
   </si>
   <si>
-    <t>HACER MÓDELO E-R</t>
-  </si>
-  <si>
-    <t>MÓDULO DE USUARIOS</t>
+    <t>MODULO DE USUARIOS</t>
+  </si>
+  <si>
+    <t>27 DE SEPTIEMBRE DE 2020 AL 06 DE NOVIEMBRE DE 2020</t>
+  </si>
+  <si>
+    <t>07 DE NOVIEMBRE DE 2020 AL 21 DE DICIEMBRE DE 2020</t>
+  </si>
+  <si>
+    <t>LEICY CÓRDOVA HERRERA</t>
+  </si>
+  <si>
+    <t>SISTEMA DE PUNTO DE VENTA Y E-COMMERCE PARA LAS SUCURSALES DE FARMACIAS GI S.A. DE C.V, EN ZIMATLÁN DE ÁLVAREZ, OAXACA.</t>
+  </si>
+  <si>
+    <t>HEBER ZABDIEL HERNÁNDEZ MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>GENERAR PAGO A COMPRAS</t>
+  </si>
+  <si>
+    <t>GENERAR DEVOLUCIÓN DE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>22 DE DICIEMBRE DE 2020 AL 02 DE FEBRERO DE 2021</t>
+  </si>
+  <si>
+    <t>03 DE FEBRERO DE 2021 AL 27 DE FEBRERO DE 2021</t>
+  </si>
+  <si>
+    <t>DISEÑAR MODELO E-R</t>
+  </si>
+  <si>
+    <t>REALIZAR CRUD DEL MÓDULO DE EMPLEADOS</t>
+  </si>
+  <si>
+    <t>REALIZAR CRUD DEL MÓDULO DE CLIENTES</t>
+  </si>
+  <si>
+    <t>REALIZAR EL MÓDULO DE INVENTARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAR REPORTES </t>
+  </si>
+  <si>
+    <t>REALIZAR MÓDULO DE ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>REALIZAR MONITOREO DE PRODUCTOS</t>
+  </si>
+  <si>
+    <t>REALIZAR MÓDULO DE PERMISOS</t>
+  </si>
+  <si>
+    <t>REALIZAR EL INVENTARIO RÁPIDO</t>
+  </si>
+  <si>
+    <t>M.E. GABRIELA AGUILAR ORTIZ</t>
+  </si>
+  <si>
+    <t>ING. ARTURO ARMANDO ARAGÓN SORROZA</t>
   </si>
 </sst>
 </file>
@@ -225,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -356,11 +381,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,21 +457,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -452,10 +515,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -484,8 +544,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,6 +709,72 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>275913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB9E95E-C483-4949-86E1-A04B6002533C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19051" y="19052"/>
+          <a:ext cx="6953250" cy="904561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -965,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:M58"/>
+  <dimension ref="A5:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -984,102 +1122,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1099,18 +1237,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="33">
-        <v>44145</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="K14" s="21">
+        <v>44144</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1122,18 +1260,18 @@
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="D16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1171,7 +1309,7 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -1187,7 +1325,7 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -1201,153 +1339,153 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="D30" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="D33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="D35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="20" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -1364,7 +1502,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -1381,7 +1519,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -1398,7 +1536,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -1415,13 +1553,15 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1432,15 +1572,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1450,21 +1588,19 @@
       <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
@@ -1481,25 +1617,23 @@
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -1512,7 +1646,7 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -1525,68 +1659,50 @@
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="I56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="J58" s="32" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="J57" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="C49:M51"/>
+    <mergeCell ref="C48:M50"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="D30:M31"/>
     <mergeCell ref="D33:M33"/>
@@ -1598,6 +1714,28 @@
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="K14:M14"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1607,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C362D9-CDB1-462E-AA31-B84255672C85}">
-  <dimension ref="A5:M56"/>
+  <dimension ref="A5:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1626,102 +1764,102 @@
   <sheetData>
     <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1741,18 +1879,18 @@
       <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="33">
-        <v>44181</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="K14" s="21">
+        <v>44207</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1764,18 +1902,18 @@
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="D16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1813,7 +1951,7 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -1829,7 +1967,7 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -1843,153 +1981,153 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="D24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="28"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="31"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="D30" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
+      <c r="D33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
+      <c r="D35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="20" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="20"/>
+      <c r="M38" s="25"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2006,7 +2144,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -2023,7 +2161,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2040,7 +2178,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2057,7 +2195,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2071,6 +2209,643 @@
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="I56" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="J57" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="C48:M50"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:M19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:M20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D24:M28"/>
+    <mergeCell ref="D30:M31"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C9B86C-872C-4A1D-BBD1-E1FC33DA635F}">
+  <dimension ref="A5:N55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="6.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="21">
+        <v>44230</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="19">
+        <v>15161317</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="19">
+        <v>15161377</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+    </row>
+    <row r="32" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="35" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="25"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
@@ -2087,25 +2862,23 @@
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -2131,47 +2904,65 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="32" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="I54" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="J56" s="32" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="J55" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="C46:M48"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D24:M28"/>
+    <mergeCell ref="D30:M31"/>
+    <mergeCell ref="D33:M33"/>
     <mergeCell ref="D35:M35"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="D15:E15"/>
@@ -2180,26 +2971,12 @@
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D24:M28"/>
-    <mergeCell ref="D30:M31"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A12:L12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2207,12 +2984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:M56"/>
+  <dimension ref="A7:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42:M42"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2227,102 +3004,102 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -2336,28 +3113,28 @@
       <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="33">
-        <v>44221</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="K15" s="21">
+        <v>44257</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="D16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -2367,11 +3144,11 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="43" t="s">
+      <c r="H17" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -2412,7 +3189,7 @@
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
@@ -2428,7 +3205,7 @@
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
@@ -2442,187 +3219,187 @@
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
+      <c r="D25" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="45"/>
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="D31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
+      <c r="D34" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
+      <c r="D36" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="20" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="20"/>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="A40" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="A41" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2639,7 +3416,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2656,7 +3433,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2673,7 +3450,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2717,7 +3494,7 @@
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -2730,48 +3507,49 @@
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="32" t="s">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="I55" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="J56" s="32" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="J56" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H17:J17"/>
+  <mergeCells count="38">
     <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="C47:M49"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="I55:N55"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="A44:K44"/>
@@ -2787,7 +3565,25 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:M20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="C47:M49"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:M22"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="90" orientation="portrait" verticalDpi="0" r:id="rId1"/>
